--- a/data/trans_bre/P5B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5B_R-Estudios-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental mala o muy mala en la zona de residencia</t>
+          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,61</t>
+          <t>0,58; 3,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,91</t>
+          <t>-1,14; 0,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,75</t>
+          <t>0,09; 2,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 0,64</t>
+          <t>-2,27; 0,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,77; 150,15</t>
+          <t>14,53; 163,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-57,39; 115,93</t>
+          <t>-58,73; 95,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 312,72</t>
+          <t>-7,04; 311,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-62,65; 43,58</t>
+          <t>-63,32; 45,66</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,76</t>
+          <t>0,21; 2,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,32</t>
+          <t>-0,53; 1,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 1,53</t>
+          <t>-0,17; 1,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 0,93</t>
+          <t>-0,16; 0,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,97; 122,79</t>
+          <t>5,58; 122,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,01; 101,22</t>
+          <t>-26,3; 104,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 149,81</t>
+          <t>-12,69; 154,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 251,3</t>
+          <t>-23,19; 273,47</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 3,88</t>
+          <t>-1,11; 3,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 0,35</t>
+          <t>-3,13; 0,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,9</t>
+          <t>-1,17; 1,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,22</t>
+          <t>-1,66; 1,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 195,26</t>
+          <t>-33,21; 190,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-87,55; 53,25</t>
+          <t>-87,47; 40,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-65,02; 473,15</t>
+          <t>-67,88; 457,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-62,06; 114,58</t>
+          <t>-62,31; 126,27</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,62</t>
+          <t>0,77; 2,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,6</t>
+          <t>-0,69; 0,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,42</t>
+          <t>0,17; 1,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 0,7</t>
+          <t>-0,34; 0,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,25; 101,58</t>
+          <t>21,47; 101,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,46; 44,91</t>
+          <t>-33,78; 40,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,59; 133,37</t>
+          <t>9,8; 137,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 79,74</t>
+          <t>-23,69; 87,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5B_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,76</t>
+          <t>0,42; 3,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,84</t>
+          <t>-1,15; 0,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 2,73</t>
+          <t>-0,09; 2,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,53; 163,91</t>
+          <t>10,03; 167,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-58,73; 95,74</t>
+          <t>-57,72; 95,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 311,7</t>
+          <t>-8,23; 338,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,82</t>
+          <t>0,23; 2,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,27</t>
+          <t>-0,51; 1,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,61</t>
+          <t>-0,18; 1,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,58; 122,75</t>
+          <t>5,32; 122,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,3; 104,76</t>
+          <t>-26,79; 105,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 154,83</t>
+          <t>-15,62; 135,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 3,87</t>
+          <t>-1,29; 3,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,2</t>
+          <t>-3,08; 0,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,92</t>
+          <t>-1,23; 1,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-33,21; 190,11</t>
+          <t>-32,98; 177,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-87,47; 40,03</t>
+          <t>-88,29; 56,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-67,88; 457,15</t>
+          <t>-71,08; 343,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,58</t>
+          <t>0,75; 2,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 0,54</t>
+          <t>-0,7; 0,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,46</t>
+          <t>0,12; 1,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,47; 101,85</t>
+          <t>20,81; 103,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,78; 40,0</t>
+          <t>-34,83; 43,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,8; 137,95</t>
+          <t>4,45; 132,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P5B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5B_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
+          <t>Población con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,79</t>
+          <t>0,4; 3,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,84</t>
+          <t>-1,14; 0,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 2,59</t>
+          <t>0,02; 2,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 0,6</t>
+          <t>-2,29; 0,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,03; 167,01</t>
+          <t>5,77; 150,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-57,72; 95,43</t>
+          <t>-57,39; 115,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 338,28</t>
+          <t>-5,63; 312,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-63,32; 45,66</t>
+          <t>-62,65; 43,58</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,86</t>
+          <t>0,24; 2,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,38</t>
+          <t>-0,46; 1,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,48</t>
+          <t>-0,22; 1,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 0,94</t>
+          <t>-0,19; 0,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,32; 122,19</t>
+          <t>6,97; 122,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,79; 105,11</t>
+          <t>-23,01; 101,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 135,41</t>
+          <t>-17,07; 149,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 273,47</t>
+          <t>-25,34; 251,3</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 3,74</t>
+          <t>-1,01; 3,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 0,44</t>
+          <t>-3,14; 0,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,77</t>
+          <t>-1,27; 1,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,38</t>
+          <t>-1,59; 1,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,98; 177,74</t>
+          <t>-26,08; 195,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-88,29; 56,49</t>
+          <t>-87,55; 53,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-71,08; 343,25</t>
+          <t>-65,02; 473,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-62,31; 126,27</t>
+          <t>-62,06; 114,58</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,65</t>
+          <t>0,81; 2,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 0,57</t>
+          <t>-0,66; 0,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,46</t>
+          <t>0,18; 1,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 0,73</t>
+          <t>-0,35; 0,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,81; 103,04</t>
+          <t>23,25; 101,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,83; 43,08</t>
+          <t>-33,46; 44,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 132,0</t>
+          <t>9,59; 133,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 87,03</t>
+          <t>-25,43; 79,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5B_R-Estudios-trans_bre.xlsx
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-27,5%</t>
+          <t>-27,08%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 0,64</t>
+          <t>-2,32; 0,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-62,65; 43,58</t>
+          <t>-62,64; 46,12</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>61,05%</t>
+          <t>60,14%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 0,93</t>
+          <t>-0,2; 0,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 251,3</t>
+          <t>-24,36; 280,02</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,24%</t>
+          <t>-3,38%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,22</t>
+          <t>-1,62; 1,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-62,06; 114,58</t>
+          <t>-63,0; 117,29</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>15,52%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 0,7</t>
+          <t>-0,4; 0,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 79,74</t>
+          <t>-30,01; 83,11</t>
         </is>
       </c>
     </row>
